--- a/excel.xlsx
+++ b/excel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\git tut\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6301E4A-E2C0-4275-BDDF-FD741749E7EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFF46798-41DB-42FC-99BE-6A51B3235F58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3000" yWindow="3000" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>k</t>
   </si>
@@ -34,9 +34,6 @@
   </si>
   <si>
     <t>,mnb</t>
-  </si>
-  <si>
-    <t>vbnm,.</t>
   </si>
 </sst>
 </file>
@@ -354,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D1" sqref="D1"/>
@@ -362,7 +359,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -372,9 +369,6 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
